--- a/docs/Sprint 5 backlog.xlsx
+++ b/docs/Sprint 5 backlog.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AhmedPC\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A38CE40-D361-4710-96C3-5C8EFC3BFF36}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25987" windowHeight="12606"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>Unique ID</t>
   </si>
@@ -123,7 +117,7 @@
     <t>As a member/partner I can edit my profile.</t>
   </si>
   <si>
-    <t>As a partner I should be able to view all events(sorted by status).</t>
+    <t>As a partner I should be able to view all my events(sorted by status).</t>
   </si>
   <si>
     <t>As a member/partner/admin I should be able to view all vacancies.</t>
@@ -165,7 +159,13 @@
     <t>Islam Omar</t>
   </si>
   <si>
+    <t>As a member I should be able to reserve a seat in an event.</t>
+  </si>
+  <si>
     <t>Gasser Khaled</t>
+  </si>
+  <si>
+    <t>As a member I should be able to unreserve a seat in an event.</t>
   </si>
   <si>
     <t>As a member I should be able to apply for a vacancy.</t>
@@ -178,12 +178,6 @@
   </si>
   <si>
     <t>As an admin I should be able to approve pending events/vacancies.</t>
-  </si>
-  <si>
-    <t>Navigation bar.</t>
-  </si>
-  <si>
-    <t>Homepage(About/Landing Page).</t>
   </si>
   <si>
     <t>As a partner I should be able to edit my pending events.</t>
@@ -201,40 +195,201 @@
     <t>As a partner I should be able to close my approved vacancy.</t>
   </si>
   <si>
-    <t>As a member I should be able to reserve a seat in an event.</t>
+    <t>Navigation bar.</t>
   </si>
   <si>
-    <t>As a member I should be able to unreserve a seat in an event.</t>
+    <t>Homepage(About/Landing Page).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Impact"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,46 +399,247 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="16"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-        <bgColor auto="1"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="28">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -304,6 +660,119 @@
         <color indexed="11"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -351,63 +820,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="12"/>
       </left>
       <right style="thin">
@@ -419,84 +831,6 @@
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -544,41 +878,308 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,113 +1188,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FFFFF733"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FF00B050"/>
-      <rgbColor rgb="FF2C6515"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="004F81BD"/>
+      <rgbColor rgb="00FFF733"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0092D050"/>
+      <rgbColor rgb="0000B050"/>
+      <rgbColor rgb="002C6515"/>
       <rgbColor rgb="00000080"/>
       <rgbColor rgb="00808000"/>
       <rgbColor rgb="00800080"/>
@@ -745,9 +1366,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -953,8 +1571,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
@@ -974,7 +1590,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -984,10 +1599,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1004,7 +1619,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1030,7 +1644,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1056,7 +1669,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1082,7 +1694,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1108,7 +1719,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1134,7 +1744,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1160,7 +1769,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1186,7 +1794,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1212,7 +1819,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1248,8 +1854,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
@@ -1269,7 +1873,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1295,7 +1898,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1321,7 +1923,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1347,7 +1948,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1373,7 +1973,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1399,7 +1998,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1425,7 +2023,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1451,7 +2048,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1477,7 +2073,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1503,7 +2098,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1536,8 +2130,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
@@ -1557,7 +2149,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1567,10 +2158,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            <a:ea typeface="Calibri" panose="020F0502020204030204"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204"/>
+            <a:sym typeface="Calibri" panose="020F0502020204030204"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1587,7 +2178,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1613,7 +2203,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1639,7 +2228,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1665,7 +2253,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1691,7 +2278,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1717,7 +2303,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1743,7 +2328,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1769,7 +2353,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1795,7 +2378,6 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
           <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
@@ -1822,95 +2404,95 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z213"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4220183486239" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="121.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.2844036697248" style="1" customWidth="1"/>
+    <col min="2" max="2" width="121.137614678899" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="26" width="8.7109375" style="1" customWidth="1"/>
-    <col min="27" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4220183486239" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1376146788991" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.8532110091743" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.8532110091743" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.2844036697248" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.4220183486239" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.8532110091743" style="1" customWidth="1"/>
+    <col min="11" max="26" width="8.70642201834862" style="1" customWidth="1"/>
+    <col min="27" max="256" width="14.4220183486239" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -1926,19 +2508,19 @@
       <c r="W2" s="13"/>
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
-      <c r="Z2" s="14"/>
-    </row>
-    <row r="3" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="Z2" s="38"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:26">
+      <c r="A3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -1954,28 +2536,28 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
-    </row>
-    <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
+      <c r="Z3" s="38"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:26">
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15">
         <v>5</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -1990,21 +2572,21 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="9" t="s">
+      <c r="Z4" s="38"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -2020,15 +2602,15 @@
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="Z5" s="38"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:26">
+      <c r="A6" s="11"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2048,17 +2630,17 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
-      <c r="Z6" s="14"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="9" t="s">
+      <c r="Z6" s="38"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2078,15 +2660,15 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
+      <c r="Z7" s="38"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A8" s="11"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2106,14 +2688,14 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="9" t="s">
+      <c r="Z8" s="38"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A9" s="21"/>
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -2136,19 +2718,19 @@
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="11"/>
+      <c r="Z9" s="38"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A10" s="23"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
@@ -2164,30 +2746,30 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="30">
+      <c r="Z10" s="38"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A11" s="23"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="24">
         <v>4</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -2202,21 +2784,21 @@
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="9" t="s">
+      <c r="Z11" s="38"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A12" s="26"/>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
@@ -2232,13 +2814,13 @@
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
       <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="Z12" s="38"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A13" s="27">
         <v>31</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="13"/>
@@ -2264,13 +2846,13 @@
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="Z13" s="38"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A14" s="27">
         <v>32.1</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="13"/>
@@ -2296,13 +2878,13 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
-        <v>32.200000000000003</v>
+      <c r="Z14" s="38"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A15" s="27">
+        <v>32.2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="13"/>
@@ -2328,13 +2910,13 @@
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="Z15" s="38"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A16" s="27">
         <v>33</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="13"/>
@@ -2360,13 +2942,13 @@
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="Z16" s="38"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A17" s="27">
         <v>34</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="13"/>
@@ -2392,11 +2974,11 @@
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="36" t="s">
+      <c r="Z17" s="38"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A18" s="23"/>
+      <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="13"/>
@@ -2422,15 +3004,15 @@
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="21" t="s">
+      <c r="Z18" s="38"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A19" s="23"/>
+      <c r="B19" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E19" s="13"/>
@@ -2454,15 +3036,15 @@
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="21" t="s">
+      <c r="Z19" s="38"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A20" s="23"/>
+      <c r="B20" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="13"/>
@@ -2486,15 +3068,15 @@
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="21" t="s">
+      <c r="Z20" s="38"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A21" s="23"/>
+      <c r="B21" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="13"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="13"/>
@@ -2518,15 +3100,15 @@
       <c r="W21" s="13"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="21" t="s">
+      <c r="Z21" s="38"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A22" s="23"/>
+      <c r="B22" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="13"/>
@@ -2550,15 +3132,15 @@
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
-      <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="21" t="s">
+      <c r="Z22" s="38"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A23" s="23"/>
+      <c r="B23" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="17" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="13"/>
@@ -2582,15 +3164,15 @@
       <c r="W23" s="13"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="21" t="s">
+      <c r="Z23" s="38"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A24" s="23"/>
+      <c r="B24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="13"/>
@@ -2614,15 +3196,15 @@
       <c r="W24" s="13"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
-      <c r="Z24" s="14"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="21" t="s">
+      <c r="Z24" s="38"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A25" s="23"/>
+      <c r="B25" s="17" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="13"/>
@@ -2646,15 +3228,15 @@
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
-      <c r="Z25" s="14"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="21" t="s">
+      <c r="Z25" s="38"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A26" s="23"/>
+      <c r="B26" s="17" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="13"/>
@@ -2678,15 +3260,15 @@
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
-      <c r="Z26" s="14"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="21" t="s">
+      <c r="Z26" s="38"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A27" s="23"/>
+      <c r="B27" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="13"/>
@@ -2710,15 +3292,15 @@
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
-      <c r="Z27" s="14"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="21" t="s">
+      <c r="Z27" s="38"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A28" s="23"/>
+      <c r="B28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="13"/>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="13"/>
@@ -2742,15 +3324,15 @@
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
-      <c r="Z28" s="14"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="21" t="s">
+      <c r="Z28" s="38"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A29" s="23"/>
+      <c r="B29" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="17" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="13"/>
@@ -2774,15 +3356,15 @@
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="21" t="s">
+      <c r="Z29" s="38"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A30" s="23"/>
+      <c r="B30" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="13"/>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="13"/>
@@ -2806,15 +3388,15 @@
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
-      <c r="Z30" s="14"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="21" t="s">
+      <c r="Z30" s="38"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A31" s="23"/>
+      <c r="B31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="17" t="s">
         <v>43</v>
       </c>
       <c r="E31" s="13"/>
@@ -2838,15 +3420,15 @@
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
-      <c r="Z31" s="14"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="21" t="s">
+      <c r="Z31" s="38"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A32" s="23"/>
+      <c r="B32" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="17" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="13"/>
@@ -2870,16 +3452,16 @@
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
-      <c r="Z32" s="14"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="21" t="s">
-        <v>59</v>
+      <c r="Z32" s="38"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A33" s="23"/>
+      <c r="B33" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="21" t="s">
-        <v>47</v>
+      <c r="D33" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2902,16 +3484,16 @@
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
-      <c r="Z33" s="14"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="21" t="s">
-        <v>60</v>
+      <c r="Z33" s="38"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A34" s="23"/>
+      <c r="B34" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="21" t="s">
-        <v>47</v>
+      <c r="D34" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2934,16 +3516,16 @@
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
-      <c r="Z34" s="14"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="21" t="s">
-        <v>48</v>
+      <c r="Z34" s="38"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A35" s="23"/>
+      <c r="B35" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="21" t="s">
-        <v>47</v>
+      <c r="D35" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2966,16 +3548,16 @@
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="21" t="s">
-        <v>49</v>
+      <c r="Z35" s="38"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A36" s="23"/>
+      <c r="B36" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="21" t="s">
-        <v>50</v>
+      <c r="D36" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2998,15 +3580,15 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
-      <c r="Z36" s="14"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="21" t="s">
-        <v>51</v>
+      <c r="Z36" s="38"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A37" s="23"/>
+      <c r="B37" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E37" s="13"/>
@@ -3030,15 +3612,15 @@
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
       <c r="Y37" s="13"/>
-      <c r="Z37" s="14"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="21" t="s">
+      <c r="Z37" s="38"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A38" s="23"/>
+      <c r="B38" s="17" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="13"/>
@@ -3062,15 +3644,15 @@
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
-      <c r="Z38" s="14"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="46" t="s">
+      <c r="Z38" s="38"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A39" s="23"/>
+      <c r="B39" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="13"/>
@@ -3094,15 +3676,15 @@
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
-      <c r="Z39" s="14"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="Z39" s="38"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A40" s="23"/>
       <c r="B40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E40" s="13"/>
@@ -3126,11 +3708,11 @@
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
-      <c r="Z40" s="14"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="46" t="s">
+      <c r="Z40" s="38"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A41" s="23"/>
+      <c r="B41" s="30" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="13"/>
@@ -3158,11 +3740,11 @@
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
       <c r="Y41" s="13"/>
-      <c r="Z41" s="14"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="21" t="s">
+      <c r="Z41" s="38"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A42" s="23"/>
+      <c r="B42" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="13"/>
@@ -3190,12 +3772,12 @@
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
       <c r="Y42" s="13"/>
-      <c r="Z42" s="14"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="21" t="s">
-        <v>52</v>
+      <c r="Z42" s="38"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A43" s="23"/>
+      <c r="B43" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13" t="s">
@@ -3222,12 +3804,12 @@
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
-      <c r="Z43" s="14"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="Z43" s="38"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A44" s="23"/>
       <c r="B44" s="13" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
@@ -3254,10 +3836,10 @@
       <c r="W44" s="13"/>
       <c r="X44" s="13"/>
       <c r="Y44" s="13"/>
-      <c r="Z44" s="14"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="Z44" s="38"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A45" s="23"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3282,10 +3864,10 @@
       <c r="W45" s="13"/>
       <c r="X45" s="13"/>
       <c r="Y45" s="13"/>
-      <c r="Z45" s="14"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
+      <c r="Z45" s="38"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A46" s="23"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3310,10 +3892,10 @@
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
-      <c r="Z46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="Z46" s="38"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A47" s="23"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3338,10 +3920,10 @@
       <c r="W47" s="13"/>
       <c r="X47" s="13"/>
       <c r="Y47" s="13"/>
-      <c r="Z47" s="14"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="Z47" s="38"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A48" s="23"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -3366,10 +3948,10 @@
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>
       <c r="Y48" s="13"/>
-      <c r="Z48" s="14"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="Z48" s="38"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A49" s="23"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -3394,10 +3976,10 @@
       <c r="W49" s="13"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
-      <c r="Z49" s="14"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="Z49" s="38"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A50" s="23"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3422,10 +4004,10 @@
       <c r="W50" s="13"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
-      <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="Z50" s="38"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A51" s="23"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -3450,10 +4032,10 @@
       <c r="W51" s="13"/>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
-      <c r="Z51" s="14"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="Z51" s="38"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A52" s="23"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -3478,10 +4060,10 @@
       <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
-      <c r="Z52" s="14"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
+      <c r="Z52" s="38"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A53" s="23"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -3506,10 +4088,10 @@
       <c r="W53" s="13"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
-      <c r="Z53" s="14"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="Z53" s="38"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A54" s="23"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -3534,10 +4116,10 @@
       <c r="W54" s="13"/>
       <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
-      <c r="Z54" s="14"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="Z54" s="38"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A55" s="23"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -3562,10 +4144,10 @@
       <c r="W55" s="13"/>
       <c r="X55" s="13"/>
       <c r="Y55" s="13"/>
-      <c r="Z55" s="14"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="Z55" s="38"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A56" s="23"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -3590,10 +4172,10 @@
       <c r="W56" s="13"/>
       <c r="X56" s="13"/>
       <c r="Y56" s="13"/>
-      <c r="Z56" s="14"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="Z56" s="38"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A57" s="23"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -3618,10 +4200,10 @@
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
-      <c r="Z57" s="14"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="Z57" s="38"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A58" s="23"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -3646,10 +4228,10 @@
       <c r="W58" s="13"/>
       <c r="X58" s="13"/>
       <c r="Y58" s="13"/>
-      <c r="Z58" s="14"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="Z58" s="38"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A59" s="23"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3674,10 +4256,10 @@
       <c r="W59" s="13"/>
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
-      <c r="Z59" s="14"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="Z59" s="38"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A60" s="23"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -3702,10 +4284,10 @@
       <c r="W60" s="13"/>
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
-      <c r="Z60" s="14"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="Z60" s="38"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A61" s="23"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -3730,10 +4312,10 @@
       <c r="W61" s="13"/>
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
-      <c r="Z61" s="14"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="Z61" s="38"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A62" s="23"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3758,10 +4340,10 @@
       <c r="W62" s="13"/>
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
-      <c r="Z62" s="14"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="Z62" s="38"/>
+    </row>
+    <row r="63" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A63" s="23"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -3786,10 +4368,10 @@
       <c r="W63" s="13"/>
       <c r="X63" s="13"/>
       <c r="Y63" s="13"/>
-      <c r="Z63" s="14"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="Z63" s="38"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A64" s="23"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3814,10 +4396,10 @@
       <c r="W64" s="13"/>
       <c r="X64" s="13"/>
       <c r="Y64" s="13"/>
-      <c r="Z64" s="14"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="Z64" s="38"/>
+    </row>
+    <row r="65" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A65" s="23"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3842,10 +4424,10 @@
       <c r="W65" s="13"/>
       <c r="X65" s="13"/>
       <c r="Y65" s="13"/>
-      <c r="Z65" s="14"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="Z65" s="38"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A66" s="23"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3870,10 +4452,10 @@
       <c r="W66" s="13"/>
       <c r="X66" s="13"/>
       <c r="Y66" s="13"/>
-      <c r="Z66" s="14"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="Z66" s="38"/>
+    </row>
+    <row r="67" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A67" s="23"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3898,10 +4480,10 @@
       <c r="W67" s="13"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
-      <c r="Z67" s="14"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="Z67" s="38"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A68" s="23"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -3926,10 +4508,10 @@
       <c r="W68" s="13"/>
       <c r="X68" s="13"/>
       <c r="Y68" s="13"/>
-      <c r="Z68" s="14"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="Z68" s="38"/>
+    </row>
+    <row r="69" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A69" s="23"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -3954,10 +4536,10 @@
       <c r="W69" s="13"/>
       <c r="X69" s="13"/>
       <c r="Y69" s="13"/>
-      <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="Z69" s="38"/>
+    </row>
+    <row r="70" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A70" s="23"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -3982,10 +4564,10 @@
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
       <c r="Y70" s="13"/>
-      <c r="Z70" s="14"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="Z70" s="38"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A71" s="23"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -4010,10 +4592,10 @@
       <c r="W71" s="13"/>
       <c r="X71" s="13"/>
       <c r="Y71" s="13"/>
-      <c r="Z71" s="14"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="Z71" s="38"/>
+    </row>
+    <row r="72" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A72" s="23"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -4038,10 +4620,10 @@
       <c r="W72" s="13"/>
       <c r="X72" s="13"/>
       <c r="Y72" s="13"/>
-      <c r="Z72" s="14"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="Z72" s="38"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A73" s="23"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -4066,10 +4648,10 @@
       <c r="W73" s="13"/>
       <c r="X73" s="13"/>
       <c r="Y73" s="13"/>
-      <c r="Z73" s="14"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="Z73" s="38"/>
+    </row>
+    <row r="74" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A74" s="23"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -4094,10 +4676,10 @@
       <c r="W74" s="13"/>
       <c r="X74" s="13"/>
       <c r="Y74" s="13"/>
-      <c r="Z74" s="14"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="Z74" s="38"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A75" s="23"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -4122,10 +4704,10 @@
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
-      <c r="Z75" s="14"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="Z75" s="38"/>
+    </row>
+    <row r="76" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A76" s="23"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4150,10 +4732,10 @@
       <c r="W76" s="13"/>
       <c r="X76" s="13"/>
       <c r="Y76" s="13"/>
-      <c r="Z76" s="14"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="Z76" s="38"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A77" s="23"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -4178,10 +4760,10 @@
       <c r="W77" s="13"/>
       <c r="X77" s="13"/>
       <c r="Y77" s="13"/>
-      <c r="Z77" s="14"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="Z77" s="38"/>
+    </row>
+    <row r="78" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A78" s="23"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -4206,10 +4788,10 @@
       <c r="W78" s="13"/>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
-      <c r="Z78" s="14"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="Z78" s="38"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A79" s="23"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -4234,10 +4816,10 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
       <c r="Y79" s="13"/>
-      <c r="Z79" s="14"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="Z79" s="38"/>
+    </row>
+    <row r="80" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A80" s="23"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4262,10 +4844,10 @@
       <c r="W80" s="13"/>
       <c r="X80" s="13"/>
       <c r="Y80" s="13"/>
-      <c r="Z80" s="14"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="Z80" s="38"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A81" s="23"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -4290,10 +4872,10 @@
       <c r="W81" s="13"/>
       <c r="X81" s="13"/>
       <c r="Y81" s="13"/>
-      <c r="Z81" s="14"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="Z81" s="38"/>
+    </row>
+    <row r="82" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A82" s="23"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -4318,10 +4900,10 @@
       <c r="W82" s="13"/>
       <c r="X82" s="13"/>
       <c r="Y82" s="13"/>
-      <c r="Z82" s="14"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="Z82" s="38"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A83" s="23"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -4346,10 +4928,10 @@
       <c r="W83" s="13"/>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
-      <c r="Z83" s="14"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="Z83" s="38"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A84" s="23"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4374,10 +4956,10 @@
       <c r="W84" s="13"/>
       <c r="X84" s="13"/>
       <c r="Y84" s="13"/>
-      <c r="Z84" s="14"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="Z84" s="38"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A85" s="23"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -4402,10 +4984,10 @@
       <c r="W85" s="13"/>
       <c r="X85" s="13"/>
       <c r="Y85" s="13"/>
-      <c r="Z85" s="14"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="Z85" s="38"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A86" s="23"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4430,10 +5012,10 @@
       <c r="W86" s="13"/>
       <c r="X86" s="13"/>
       <c r="Y86" s="13"/>
-      <c r="Z86" s="14"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="Z86" s="38"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A87" s="23"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4458,10 +5040,10 @@
       <c r="W87" s="13"/>
       <c r="X87" s="13"/>
       <c r="Y87" s="13"/>
-      <c r="Z87" s="14"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="Z87" s="38"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A88" s="23"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4486,10 +5068,10 @@
       <c r="W88" s="13"/>
       <c r="X88" s="13"/>
       <c r="Y88" s="13"/>
-      <c r="Z88" s="14"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
+      <c r="Z88" s="38"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A89" s="23"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -4514,10 +5096,10 @@
       <c r="W89" s="13"/>
       <c r="X89" s="13"/>
       <c r="Y89" s="13"/>
-      <c r="Z89" s="14"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="Z89" s="38"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A90" s="23"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -4542,10 +5124,10 @@
       <c r="W90" s="13"/>
       <c r="X90" s="13"/>
       <c r="Y90" s="13"/>
-      <c r="Z90" s="14"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="Z90" s="38"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A91" s="23"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -4570,10 +5152,10 @@
       <c r="W91" s="13"/>
       <c r="X91" s="13"/>
       <c r="Y91" s="13"/>
-      <c r="Z91" s="14"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="Z91" s="38"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A92" s="23"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -4598,10 +5180,10 @@
       <c r="W92" s="13"/>
       <c r="X92" s="13"/>
       <c r="Y92" s="13"/>
-      <c r="Z92" s="14"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="Z92" s="38"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A93" s="23"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -4626,10 +5208,10 @@
       <c r="W93" s="13"/>
       <c r="X93" s="13"/>
       <c r="Y93" s="13"/>
-      <c r="Z93" s="14"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="Z93" s="38"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A94" s="23"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -4654,10 +5236,10 @@
       <c r="W94" s="13"/>
       <c r="X94" s="13"/>
       <c r="Y94" s="13"/>
-      <c r="Z94" s="14"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="Z94" s="38"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A95" s="23"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -4682,10 +5264,10 @@
       <c r="W95" s="13"/>
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
-      <c r="Z95" s="14"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="Z95" s="38"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A96" s="23"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4710,10 +5292,10 @@
       <c r="W96" s="13"/>
       <c r="X96" s="13"/>
       <c r="Y96" s="13"/>
-      <c r="Z96" s="14"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="Z96" s="38"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A97" s="23"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -4738,10 +5320,10 @@
       <c r="W97" s="13"/>
       <c r="X97" s="13"/>
       <c r="Y97" s="13"/>
-      <c r="Z97" s="14"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="Z97" s="38"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A98" s="23"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -4766,10 +5348,10 @@
       <c r="W98" s="13"/>
       <c r="X98" s="13"/>
       <c r="Y98" s="13"/>
-      <c r="Z98" s="14"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
+      <c r="Z98" s="38"/>
+    </row>
+    <row r="99" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A99" s="23"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -4794,10 +5376,10 @@
       <c r="W99" s="13"/>
       <c r="X99" s="13"/>
       <c r="Y99" s="13"/>
-      <c r="Z99" s="14"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
+      <c r="Z99" s="38"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A100" s="23"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -4822,10 +5404,10 @@
       <c r="W100" s="13"/>
       <c r="X100" s="13"/>
       <c r="Y100" s="13"/>
-      <c r="Z100" s="14"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
+      <c r="Z100" s="38"/>
+    </row>
+    <row r="101" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A101" s="23"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -4850,10 +5432,10 @@
       <c r="W101" s="13"/>
       <c r="X101" s="13"/>
       <c r="Y101" s="13"/>
-      <c r="Z101" s="14"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="Z101" s="38"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A102" s="23"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4878,10 +5460,10 @@
       <c r="W102" s="13"/>
       <c r="X102" s="13"/>
       <c r="Y102" s="13"/>
-      <c r="Z102" s="14"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="Z102" s="38"/>
+    </row>
+    <row r="103" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A103" s="23"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -4906,10 +5488,10 @@
       <c r="W103" s="13"/>
       <c r="X103" s="13"/>
       <c r="Y103" s="13"/>
-      <c r="Z103" s="14"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="Z103" s="38"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A104" s="23"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4934,10 +5516,10 @@
       <c r="W104" s="13"/>
       <c r="X104" s="13"/>
       <c r="Y104" s="13"/>
-      <c r="Z104" s="14"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="Z104" s="38"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A105" s="23"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -4962,10 +5544,10 @@
       <c r="W105" s="13"/>
       <c r="X105" s="13"/>
       <c r="Y105" s="13"/>
-      <c r="Z105" s="14"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="Z105" s="38"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A106" s="23"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -4990,10 +5572,10 @@
       <c r="W106" s="13"/>
       <c r="X106" s="13"/>
       <c r="Y106" s="13"/>
-      <c r="Z106" s="14"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="Z106" s="38"/>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A107" s="23"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5018,10 +5600,10 @@
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
       <c r="Y107" s="13"/>
-      <c r="Z107" s="14"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="Z107" s="38"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A108" s="23"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -5046,10 +5628,10 @@
       <c r="W108" s="13"/>
       <c r="X108" s="13"/>
       <c r="Y108" s="13"/>
-      <c r="Z108" s="14"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+      <c r="Z108" s="38"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A109" s="23"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -5074,10 +5656,10 @@
       <c r="W109" s="13"/>
       <c r="X109" s="13"/>
       <c r="Y109" s="13"/>
-      <c r="Z109" s="14"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
+      <c r="Z109" s="38"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A110" s="23"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
       <c r="D110" s="13"/>
@@ -5102,10 +5684,10 @@
       <c r="W110" s="13"/>
       <c r="X110" s="13"/>
       <c r="Y110" s="13"/>
-      <c r="Z110" s="14"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
+      <c r="Z110" s="38"/>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A111" s="23"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
       <c r="D111" s="13"/>
@@ -5130,10 +5712,10 @@
       <c r="W111" s="13"/>
       <c r="X111" s="13"/>
       <c r="Y111" s="13"/>
-      <c r="Z111" s="14"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="Z111" s="38"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A112" s="23"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="13"/>
@@ -5158,10 +5740,10 @@
       <c r="W112" s="13"/>
       <c r="X112" s="13"/>
       <c r="Y112" s="13"/>
-      <c r="Z112" s="14"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+      <c r="Z112" s="38"/>
+    </row>
+    <row r="113" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A113" s="23"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="13"/>
@@ -5186,10 +5768,10 @@
       <c r="W113" s="13"/>
       <c r="X113" s="13"/>
       <c r="Y113" s="13"/>
-      <c r="Z113" s="14"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="Z113" s="38"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A114" s="23"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
@@ -5214,10 +5796,10 @@
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
-      <c r="Z114" s="14"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="Z114" s="38"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A115" s="23"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
       <c r="D115" s="13"/>
@@ -5242,10 +5824,10 @@
       <c r="W115" s="13"/>
       <c r="X115" s="13"/>
       <c r="Y115" s="13"/>
-      <c r="Z115" s="14"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="Z115" s="38"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A116" s="23"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="13"/>
@@ -5270,10 +5852,10 @@
       <c r="W116" s="13"/>
       <c r="X116" s="13"/>
       <c r="Y116" s="13"/>
-      <c r="Z116" s="14"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="Z116" s="38"/>
+    </row>
+    <row r="117" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A117" s="23"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
       <c r="D117" s="13"/>
@@ -5298,10 +5880,10 @@
       <c r="W117" s="13"/>
       <c r="X117" s="13"/>
       <c r="Y117" s="13"/>
-      <c r="Z117" s="14"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="Z117" s="38"/>
+    </row>
+    <row r="118" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A118" s="23"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
       <c r="D118" s="13"/>
@@ -5326,10 +5908,10 @@
       <c r="W118" s="13"/>
       <c r="X118" s="13"/>
       <c r="Y118" s="13"/>
-      <c r="Z118" s="14"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="Z118" s="38"/>
+    </row>
+    <row r="119" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A119" s="23"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="13"/>
@@ -5354,10 +5936,10 @@
       <c r="W119" s="13"/>
       <c r="X119" s="13"/>
       <c r="Y119" s="13"/>
-      <c r="Z119" s="14"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="Z119" s="38"/>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A120" s="23"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
       <c r="D120" s="13"/>
@@ -5382,10 +5964,10 @@
       <c r="W120" s="13"/>
       <c r="X120" s="13"/>
       <c r="Y120" s="13"/>
-      <c r="Z120" s="14"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="Z120" s="38"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A121" s="23"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
       <c r="D121" s="13"/>
@@ -5410,10 +5992,10 @@
       <c r="W121" s="13"/>
       <c r="X121" s="13"/>
       <c r="Y121" s="13"/>
-      <c r="Z121" s="14"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="Z121" s="38"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A122" s="23"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="13"/>
@@ -5438,10 +6020,10 @@
       <c r="W122" s="13"/>
       <c r="X122" s="13"/>
       <c r="Y122" s="13"/>
-      <c r="Z122" s="14"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="Z122" s="38"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A123" s="23"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
       <c r="D123" s="13"/>
@@ -5466,10 +6048,10 @@
       <c r="W123" s="13"/>
       <c r="X123" s="13"/>
       <c r="Y123" s="13"/>
-      <c r="Z123" s="14"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="Z123" s="38"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A124" s="23"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
       <c r="D124" s="13"/>
@@ -5494,10 +6076,10 @@
       <c r="W124" s="13"/>
       <c r="X124" s="13"/>
       <c r="Y124" s="13"/>
-      <c r="Z124" s="14"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="Z124" s="38"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A125" s="23"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
@@ -5522,10 +6104,10 @@
       <c r="W125" s="13"/>
       <c r="X125" s="13"/>
       <c r="Y125" s="13"/>
-      <c r="Z125" s="14"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="Z125" s="38"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A126" s="23"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="13"/>
@@ -5550,10 +6132,10 @@
       <c r="W126" s="13"/>
       <c r="X126" s="13"/>
       <c r="Y126" s="13"/>
-      <c r="Z126" s="14"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="Z126" s="38"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A127" s="23"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
@@ -5578,10 +6160,10 @@
       <c r="W127" s="13"/>
       <c r="X127" s="13"/>
       <c r="Y127" s="13"/>
-      <c r="Z127" s="14"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+      <c r="Z127" s="38"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A128" s="23"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
       <c r="D128" s="13"/>
@@ -5606,10 +6188,10 @@
       <c r="W128" s="13"/>
       <c r="X128" s="13"/>
       <c r="Y128" s="13"/>
-      <c r="Z128" s="14"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+      <c r="Z128" s="38"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A129" s="23"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
@@ -5634,10 +6216,10 @@
       <c r="W129" s="13"/>
       <c r="X129" s="13"/>
       <c r="Y129" s="13"/>
-      <c r="Z129" s="14"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+      <c r="Z129" s="38"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A130" s="23"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -5662,10 +6244,10 @@
       <c r="W130" s="13"/>
       <c r="X130" s="13"/>
       <c r="Y130" s="13"/>
-      <c r="Z130" s="14"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
+      <c r="Z130" s="38"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A131" s="23"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -5690,10 +6272,10 @@
       <c r="W131" s="13"/>
       <c r="X131" s="13"/>
       <c r="Y131" s="13"/>
-      <c r="Z131" s="14"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+      <c r="Z131" s="38"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A132" s="23"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
@@ -5718,10 +6300,10 @@
       <c r="W132" s="13"/>
       <c r="X132" s="13"/>
       <c r="Y132" s="13"/>
-      <c r="Z132" s="14"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
+      <c r="Z132" s="38"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A133" s="23"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -5746,10 +6328,10 @@
       <c r="W133" s="13"/>
       <c r="X133" s="13"/>
       <c r="Y133" s="13"/>
-      <c r="Z133" s="14"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
+      <c r="Z133" s="38"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A134" s="23"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -5774,10 +6356,10 @@
       <c r="W134" s="13"/>
       <c r="X134" s="13"/>
       <c r="Y134" s="13"/>
-      <c r="Z134" s="14"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
+      <c r="Z134" s="38"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A135" s="23"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -5802,10 +6384,10 @@
       <c r="W135" s="13"/>
       <c r="X135" s="13"/>
       <c r="Y135" s="13"/>
-      <c r="Z135" s="14"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
+      <c r="Z135" s="38"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A136" s="23"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
       <c r="D136" s="13"/>
@@ -5830,10 +6412,10 @@
       <c r="W136" s="13"/>
       <c r="X136" s="13"/>
       <c r="Y136" s="13"/>
-      <c r="Z136" s="14"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
+      <c r="Z136" s="38"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A137" s="23"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
@@ -5858,10 +6440,10 @@
       <c r="W137" s="13"/>
       <c r="X137" s="13"/>
       <c r="Y137" s="13"/>
-      <c r="Z137" s="14"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
+      <c r="Z137" s="38"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A138" s="23"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
@@ -5886,10 +6468,10 @@
       <c r="W138" s="13"/>
       <c r="X138" s="13"/>
       <c r="Y138" s="13"/>
-      <c r="Z138" s="14"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
+      <c r="Z138" s="38"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A139" s="23"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
       <c r="D139" s="13"/>
@@ -5914,10 +6496,10 @@
       <c r="W139" s="13"/>
       <c r="X139" s="13"/>
       <c r="Y139" s="13"/>
-      <c r="Z139" s="14"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
+      <c r="Z139" s="38"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A140" s="23"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
       <c r="D140" s="13"/>
@@ -5942,10 +6524,10 @@
       <c r="W140" s="13"/>
       <c r="X140" s="13"/>
       <c r="Y140" s="13"/>
-      <c r="Z140" s="14"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
+      <c r="Z140" s="38"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A141" s="23"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
       <c r="D141" s="13"/>
@@ -5970,10 +6552,10 @@
       <c r="W141" s="13"/>
       <c r="X141" s="13"/>
       <c r="Y141" s="13"/>
-      <c r="Z141" s="14"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
+      <c r="Z141" s="38"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A142" s="23"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
@@ -5998,10 +6580,10 @@
       <c r="W142" s="13"/>
       <c r="X142" s="13"/>
       <c r="Y142" s="13"/>
-      <c r="Z142" s="14"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
+      <c r="Z142" s="38"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A143" s="23"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
       <c r="D143" s="13"/>
@@ -6026,10 +6608,10 @@
       <c r="W143" s="13"/>
       <c r="X143" s="13"/>
       <c r="Y143" s="13"/>
-      <c r="Z143" s="14"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
+      <c r="Z143" s="38"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A144" s="23"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
@@ -6054,10 +6636,10 @@
       <c r="W144" s="13"/>
       <c r="X144" s="13"/>
       <c r="Y144" s="13"/>
-      <c r="Z144" s="14"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
+      <c r="Z144" s="38"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A145" s="23"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
       <c r="D145" s="13"/>
@@ -6082,10 +6664,10 @@
       <c r="W145" s="13"/>
       <c r="X145" s="13"/>
       <c r="Y145" s="13"/>
-      <c r="Z145" s="14"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
+      <c r="Z145" s="38"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A146" s="23"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
       <c r="D146" s="13"/>
@@ -6110,10 +6692,10 @@
       <c r="W146" s="13"/>
       <c r="X146" s="13"/>
       <c r="Y146" s="13"/>
-      <c r="Z146" s="14"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
+      <c r="Z146" s="38"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A147" s="23"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
       <c r="D147" s="13"/>
@@ -6138,10 +6720,10 @@
       <c r="W147" s="13"/>
       <c r="X147" s="13"/>
       <c r="Y147" s="13"/>
-      <c r="Z147" s="14"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="29"/>
+      <c r="Z147" s="38"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A148" s="23"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
       <c r="D148" s="13"/>
@@ -6166,10 +6748,10 @@
       <c r="W148" s="13"/>
       <c r="X148" s="13"/>
       <c r="Y148" s="13"/>
-      <c r="Z148" s="14"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="29"/>
+      <c r="Z148" s="38"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A149" s="23"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
       <c r="D149" s="13"/>
@@ -6194,10 +6776,10 @@
       <c r="W149" s="13"/>
       <c r="X149" s="13"/>
       <c r="Y149" s="13"/>
-      <c r="Z149" s="14"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="29"/>
+      <c r="Z149" s="38"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A150" s="23"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
       <c r="D150" s="13"/>
@@ -6222,10 +6804,10 @@
       <c r="W150" s="13"/>
       <c r="X150" s="13"/>
       <c r="Y150" s="13"/>
-      <c r="Z150" s="14"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="29"/>
+      <c r="Z150" s="38"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A151" s="23"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
       <c r="D151" s="13"/>
@@ -6250,10 +6832,10 @@
       <c r="W151" s="13"/>
       <c r="X151" s="13"/>
       <c r="Y151" s="13"/>
-      <c r="Z151" s="14"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="29"/>
+      <c r="Z151" s="38"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A152" s="23"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
       <c r="D152" s="13"/>
@@ -6278,10 +6860,10 @@
       <c r="W152" s="13"/>
       <c r="X152" s="13"/>
       <c r="Y152" s="13"/>
-      <c r="Z152" s="14"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="29"/>
+      <c r="Z152" s="38"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A153" s="23"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
       <c r="D153" s="13"/>
@@ -6306,10 +6888,10 @@
       <c r="W153" s="13"/>
       <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
-      <c r="Z153" s="14"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="29"/>
+      <c r="Z153" s="38"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A154" s="23"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
@@ -6334,10 +6916,10 @@
       <c r="W154" s="13"/>
       <c r="X154" s="13"/>
       <c r="Y154" s="13"/>
-      <c r="Z154" s="14"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="29"/>
+      <c r="Z154" s="38"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A155" s="23"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
@@ -6362,10 +6944,10 @@
       <c r="W155" s="13"/>
       <c r="X155" s="13"/>
       <c r="Y155" s="13"/>
-      <c r="Z155" s="14"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="29"/>
+      <c r="Z155" s="38"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A156" s="23"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
@@ -6390,10 +6972,10 @@
       <c r="W156" s="13"/>
       <c r="X156" s="13"/>
       <c r="Y156" s="13"/>
-      <c r="Z156" s="14"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="29"/>
+      <c r="Z156" s="38"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A157" s="23"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
@@ -6418,10 +7000,10 @@
       <c r="W157" s="13"/>
       <c r="X157" s="13"/>
       <c r="Y157" s="13"/>
-      <c r="Z157" s="14"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="29"/>
+      <c r="Z157" s="38"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A158" s="23"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
       <c r="D158" s="13"/>
@@ -6446,10 +7028,10 @@
       <c r="W158" s="13"/>
       <c r="X158" s="13"/>
       <c r="Y158" s="13"/>
-      <c r="Z158" s="14"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="29"/>
+      <c r="Z158" s="38"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A159" s="23"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
@@ -6474,10 +7056,10 @@
       <c r="W159" s="13"/>
       <c r="X159" s="13"/>
       <c r="Y159" s="13"/>
-      <c r="Z159" s="14"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="29"/>
+      <c r="Z159" s="38"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A160" s="23"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
@@ -6502,10 +7084,10 @@
       <c r="W160" s="13"/>
       <c r="X160" s="13"/>
       <c r="Y160" s="13"/>
-      <c r="Z160" s="14"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="29"/>
+      <c r="Z160" s="38"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A161" s="23"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
       <c r="D161" s="13"/>
@@ -6530,10 +7112,10 @@
       <c r="W161" s="13"/>
       <c r="X161" s="13"/>
       <c r="Y161" s="13"/>
-      <c r="Z161" s="14"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="29"/>
+      <c r="Z161" s="38"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A162" s="23"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -6558,10 +7140,10 @@
       <c r="W162" s="13"/>
       <c r="X162" s="13"/>
       <c r="Y162" s="13"/>
-      <c r="Z162" s="14"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="29"/>
+      <c r="Z162" s="38"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A163" s="23"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
@@ -6586,10 +7168,10 @@
       <c r="W163" s="13"/>
       <c r="X163" s="13"/>
       <c r="Y163" s="13"/>
-      <c r="Z163" s="14"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="29"/>
+      <c r="Z163" s="38"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A164" s="23"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
       <c r="D164" s="13"/>
@@ -6614,10 +7196,10 @@
       <c r="W164" s="13"/>
       <c r="X164" s="13"/>
       <c r="Y164" s="13"/>
-      <c r="Z164" s="14"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="29"/>
+      <c r="Z164" s="38"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A165" s="23"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
       <c r="D165" s="13"/>
@@ -6642,10 +7224,10 @@
       <c r="W165" s="13"/>
       <c r="X165" s="13"/>
       <c r="Y165" s="13"/>
-      <c r="Z165" s="14"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="29"/>
+      <c r="Z165" s="38"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A166" s="23"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
       <c r="D166" s="13"/>
@@ -6670,10 +7252,10 @@
       <c r="W166" s="13"/>
       <c r="X166" s="13"/>
       <c r="Y166" s="13"/>
-      <c r="Z166" s="14"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="29"/>
+      <c r="Z166" s="38"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A167" s="23"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
@@ -6698,10 +7280,10 @@
       <c r="W167" s="13"/>
       <c r="X167" s="13"/>
       <c r="Y167" s="13"/>
-      <c r="Z167" s="14"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="29"/>
+      <c r="Z167" s="38"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A168" s="23"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
@@ -6726,10 +7308,10 @@
       <c r="W168" s="13"/>
       <c r="X168" s="13"/>
       <c r="Y168" s="13"/>
-      <c r="Z168" s="14"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="29"/>
+      <c r="Z168" s="38"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A169" s="23"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
       <c r="D169" s="13"/>
@@ -6754,10 +7336,10 @@
       <c r="W169" s="13"/>
       <c r="X169" s="13"/>
       <c r="Y169" s="13"/>
-      <c r="Z169" s="14"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="29"/>
+      <c r="Z169" s="38"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A170" s="23"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -6782,10 +7364,10 @@
       <c r="W170" s="13"/>
       <c r="X170" s="13"/>
       <c r="Y170" s="13"/>
-      <c r="Z170" s="14"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="29"/>
+      <c r="Z170" s="38"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A171" s="23"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
@@ -6810,10 +7392,10 @@
       <c r="W171" s="13"/>
       <c r="X171" s="13"/>
       <c r="Y171" s="13"/>
-      <c r="Z171" s="14"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="29"/>
+      <c r="Z171" s="38"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A172" s="23"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
       <c r="D172" s="13"/>
@@ -6838,10 +7420,10 @@
       <c r="W172" s="13"/>
       <c r="X172" s="13"/>
       <c r="Y172" s="13"/>
-      <c r="Z172" s="14"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
+      <c r="Z172" s="38"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A173" s="23"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
       <c r="D173" s="13"/>
@@ -6866,10 +7448,10 @@
       <c r="W173" s="13"/>
       <c r="X173" s="13"/>
       <c r="Y173" s="13"/>
-      <c r="Z173" s="14"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
+      <c r="Z173" s="38"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A174" s="23"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
       <c r="D174" s="13"/>
@@ -6894,10 +7476,10 @@
       <c r="W174" s="13"/>
       <c r="X174" s="13"/>
       <c r="Y174" s="13"/>
-      <c r="Z174" s="14"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
+      <c r="Z174" s="38"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A175" s="23"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
       <c r="D175" s="13"/>
@@ -6922,10 +7504,10 @@
       <c r="W175" s="13"/>
       <c r="X175" s="13"/>
       <c r="Y175" s="13"/>
-      <c r="Z175" s="14"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
+      <c r="Z175" s="38"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A176" s="23"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
       <c r="D176" s="13"/>
@@ -6950,10 +7532,10 @@
       <c r="W176" s="13"/>
       <c r="X176" s="13"/>
       <c r="Y176" s="13"/>
-      <c r="Z176" s="14"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
+      <c r="Z176" s="38"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A177" s="23"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
       <c r="D177" s="13"/>
@@ -6978,10 +7560,10 @@
       <c r="W177" s="13"/>
       <c r="X177" s="13"/>
       <c r="Y177" s="13"/>
-      <c r="Z177" s="14"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
+      <c r="Z177" s="38"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A178" s="23"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
       <c r="D178" s="13"/>
@@ -7006,10 +7588,10 @@
       <c r="W178" s="13"/>
       <c r="X178" s="13"/>
       <c r="Y178" s="13"/>
-      <c r="Z178" s="14"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
+      <c r="Z178" s="38"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A179" s="23"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -7034,10 +7616,10 @@
       <c r="W179" s="13"/>
       <c r="X179" s="13"/>
       <c r="Y179" s="13"/>
-      <c r="Z179" s="14"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
+      <c r="Z179" s="38"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A180" s="23"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
       <c r="D180" s="13"/>
@@ -7062,10 +7644,10 @@
       <c r="W180" s="13"/>
       <c r="X180" s="13"/>
       <c r="Y180" s="13"/>
-      <c r="Z180" s="14"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="29"/>
+      <c r="Z180" s="38"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A181" s="23"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
       <c r="D181" s="13"/>
@@ -7090,10 +7672,10 @@
       <c r="W181" s="13"/>
       <c r="X181" s="13"/>
       <c r="Y181" s="13"/>
-      <c r="Z181" s="14"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
+      <c r="Z181" s="38"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A182" s="23"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
       <c r="D182" s="13"/>
@@ -7118,10 +7700,10 @@
       <c r="W182" s="13"/>
       <c r="X182" s="13"/>
       <c r="Y182" s="13"/>
-      <c r="Z182" s="14"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
+      <c r="Z182" s="38"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A183" s="23"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
       <c r="D183" s="13"/>
@@ -7146,10 +7728,10 @@
       <c r="W183" s="13"/>
       <c r="X183" s="13"/>
       <c r="Y183" s="13"/>
-      <c r="Z183" s="14"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
+      <c r="Z183" s="38"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A184" s="23"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
       <c r="D184" s="13"/>
@@ -7174,10 +7756,10 @@
       <c r="W184" s="13"/>
       <c r="X184" s="13"/>
       <c r="Y184" s="13"/>
-      <c r="Z184" s="14"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="29"/>
+      <c r="Z184" s="38"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A185" s="23"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
       <c r="D185" s="13"/>
@@ -7202,10 +7784,10 @@
       <c r="W185" s="13"/>
       <c r="X185" s="13"/>
       <c r="Y185" s="13"/>
-      <c r="Z185" s="14"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
+      <c r="Z185" s="38"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A186" s="23"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
       <c r="D186" s="13"/>
@@ -7230,10 +7812,10 @@
       <c r="W186" s="13"/>
       <c r="X186" s="13"/>
       <c r="Y186" s="13"/>
-      <c r="Z186" s="14"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
+      <c r="Z186" s="38"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A187" s="23"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
       <c r="D187" s="13"/>
@@ -7258,10 +7840,10 @@
       <c r="W187" s="13"/>
       <c r="X187" s="13"/>
       <c r="Y187" s="13"/>
-      <c r="Z187" s="14"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
+      <c r="Z187" s="38"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A188" s="23"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -7286,10 +7868,10 @@
       <c r="W188" s="13"/>
       <c r="X188" s="13"/>
       <c r="Y188" s="13"/>
-      <c r="Z188" s="14"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
+      <c r="Z188" s="38"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A189" s="23"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
       <c r="D189" s="13"/>
@@ -7314,10 +7896,10 @@
       <c r="W189" s="13"/>
       <c r="X189" s="13"/>
       <c r="Y189" s="13"/>
-      <c r="Z189" s="14"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
+      <c r="Z189" s="38"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A190" s="23"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
       <c r="D190" s="13"/>
@@ -7342,10 +7924,10 @@
       <c r="W190" s="13"/>
       <c r="X190" s="13"/>
       <c r="Y190" s="13"/>
-      <c r="Z190" s="14"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
+      <c r="Z190" s="38"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A191" s="23"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
       <c r="D191" s="13"/>
@@ -7370,10 +7952,10 @@
       <c r="W191" s="13"/>
       <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
-      <c r="Z191" s="14"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
+      <c r="Z191" s="38"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A192" s="23"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
       <c r="D192" s="13"/>
@@ -7398,10 +7980,10 @@
       <c r="W192" s="13"/>
       <c r="X192" s="13"/>
       <c r="Y192" s="13"/>
-      <c r="Z192" s="14"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
+      <c r="Z192" s="38"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A193" s="23"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
       <c r="D193" s="13"/>
@@ -7426,10 +8008,10 @@
       <c r="W193" s="13"/>
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
-      <c r="Z193" s="14"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
+      <c r="Z193" s="38"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A194" s="23"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -7454,10 +8036,10 @@
       <c r="W194" s="13"/>
       <c r="X194" s="13"/>
       <c r="Y194" s="13"/>
-      <c r="Z194" s="14"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
+      <c r="Z194" s="38"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A195" s="23"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
       <c r="D195" s="13"/>
@@ -7482,10 +8064,10 @@
       <c r="W195" s="13"/>
       <c r="X195" s="13"/>
       <c r="Y195" s="13"/>
-      <c r="Z195" s="14"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="29"/>
+      <c r="Z195" s="38"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A196" s="23"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -7510,10 +8092,10 @@
       <c r="W196" s="13"/>
       <c r="X196" s="13"/>
       <c r="Y196" s="13"/>
-      <c r="Z196" s="14"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="29"/>
+      <c r="Z196" s="38"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A197" s="23"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
       <c r="D197" s="13"/>
@@ -7538,10 +8120,10 @@
       <c r="W197" s="13"/>
       <c r="X197" s="13"/>
       <c r="Y197" s="13"/>
-      <c r="Z197" s="14"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
+      <c r="Z197" s="38"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A198" s="23"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
       <c r="D198" s="13"/>
@@ -7566,10 +8148,10 @@
       <c r="W198" s="13"/>
       <c r="X198" s="13"/>
       <c r="Y198" s="13"/>
-      <c r="Z198" s="14"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
+      <c r="Z198" s="38"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A199" s="23"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
       <c r="D199" s="13"/>
@@ -7594,10 +8176,10 @@
       <c r="W199" s="13"/>
       <c r="X199" s="13"/>
       <c r="Y199" s="13"/>
-      <c r="Z199" s="14"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
+      <c r="Z199" s="38"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A200" s="23"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
       <c r="D200" s="13"/>
@@ -7622,10 +8204,10 @@
       <c r="W200" s="13"/>
       <c r="X200" s="13"/>
       <c r="Y200" s="13"/>
-      <c r="Z200" s="14"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="37"/>
+      <c r="Z200" s="38"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A201" s="39"/>
       <c r="B201" s="13"/>
       <c r="C201" s="13"/>
       <c r="D201" s="13"/>
@@ -7650,10 +8232,10 @@
       <c r="W201" s="13"/>
       <c r="X201" s="13"/>
       <c r="Y201" s="13"/>
-      <c r="Z201" s="14"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="37"/>
+      <c r="Z201" s="38"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A202" s="39"/>
       <c r="B202" s="13"/>
       <c r="C202" s="13"/>
       <c r="D202" s="13"/>
@@ -7678,10 +8260,10 @@
       <c r="W202" s="13"/>
       <c r="X202" s="13"/>
       <c r="Y202" s="13"/>
-      <c r="Z202" s="14"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="37"/>
+      <c r="Z202" s="38"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A203" s="39"/>
       <c r="B203" s="13"/>
       <c r="C203" s="13"/>
       <c r="D203" s="13"/>
@@ -7706,10 +8288,10 @@
       <c r="W203" s="13"/>
       <c r="X203" s="13"/>
       <c r="Y203" s="13"/>
-      <c r="Z203" s="14"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="37"/>
+      <c r="Z203" s="38"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A204" s="39"/>
       <c r="B204" s="13"/>
       <c r="C204" s="13"/>
       <c r="D204" s="13"/>
@@ -7734,10 +8316,10 @@
       <c r="W204" s="13"/>
       <c r="X204" s="13"/>
       <c r="Y204" s="13"/>
-      <c r="Z204" s="14"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="37"/>
+      <c r="Z204" s="38"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A205" s="39"/>
       <c r="B205" s="13"/>
       <c r="C205" s="13"/>
       <c r="D205" s="13"/>
@@ -7762,10 +8344,10 @@
       <c r="W205" s="13"/>
       <c r="X205" s="13"/>
       <c r="Y205" s="13"/>
-      <c r="Z205" s="14"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="37"/>
+      <c r="Z205" s="38"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A206" s="39"/>
       <c r="B206" s="13"/>
       <c r="C206" s="13"/>
       <c r="D206" s="13"/>
@@ -7790,177 +8372,177 @@
       <c r="W206" s="13"/>
       <c r="X206" s="13"/>
       <c r="Y206" s="13"/>
-      <c r="Z206" s="14"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="37"/>
+      <c r="Z206" s="38"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A207" s="39"/>
       <c r="B207" s="13"/>
       <c r="C207" s="13"/>
       <c r="D207" s="13"/>
       <c r="E207" s="13"/>
       <c r="F207" s="13"/>
       <c r="G207" s="13"/>
-      <c r="H207" s="38"/>
-      <c r="I207" s="38"/>
-      <c r="J207" s="38"/>
-      <c r="K207" s="38"/>
-      <c r="L207" s="38"/>
-      <c r="M207" s="38"/>
-      <c r="N207" s="38"/>
-      <c r="O207" s="38"/>
-      <c r="P207" s="38"/>
-      <c r="Q207" s="38"/>
-      <c r="R207" s="38"/>
-      <c r="S207" s="38"/>
-      <c r="T207" s="38"/>
-      <c r="U207" s="38"/>
-      <c r="V207" s="38"/>
-      <c r="W207" s="38"/>
-      <c r="X207" s="38"/>
-      <c r="Y207" s="38"/>
-      <c r="Z207" s="39"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="37"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+      <c r="J207" s="2"/>
+      <c r="K207" s="2"/>
+      <c r="L207" s="2"/>
+      <c r="M207" s="2"/>
+      <c r="N207" s="2"/>
+      <c r="O207" s="2"/>
+      <c r="P207" s="2"/>
+      <c r="Q207" s="2"/>
+      <c r="R207" s="2"/>
+      <c r="S207" s="2"/>
+      <c r="T207" s="2"/>
+      <c r="U207" s="2"/>
+      <c r="V207" s="2"/>
+      <c r="W207" s="2"/>
+      <c r="X207" s="2"/>
+      <c r="Y207" s="2"/>
+      <c r="Z207" s="43"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A208" s="39"/>
       <c r="B208" s="13"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="38"/>
-      <c r="E208" s="38"/>
-      <c r="F208" s="38"/>
-      <c r="G208" s="38"/>
-      <c r="H208" s="38"/>
-      <c r="I208" s="38"/>
-      <c r="J208" s="38"/>
-      <c r="K208" s="38"/>
-      <c r="L208" s="38"/>
-      <c r="M208" s="38"/>
-      <c r="N208" s="38"/>
-      <c r="O208" s="38"/>
-      <c r="P208" s="38"/>
-      <c r="Q208" s="38"/>
-      <c r="R208" s="38"/>
-      <c r="S208" s="38"/>
-      <c r="T208" s="38"/>
-      <c r="U208" s="38"/>
-      <c r="V208" s="38"/>
-      <c r="W208" s="38"/>
-      <c r="X208" s="38"/>
-      <c r="Y208" s="38"/>
-      <c r="Z208" s="39"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="37"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="43"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A209" s="39"/>
       <c r="B209" s="13"/>
-      <c r="C209" s="38"/>
-      <c r="D209" s="38"/>
-      <c r="E209" s="38"/>
-      <c r="F209" s="38"/>
-      <c r="G209" s="38"/>
-      <c r="H209" s="38"/>
-      <c r="I209" s="38"/>
-      <c r="J209" s="38"/>
-      <c r="K209" s="38"/>
-      <c r="L209" s="38"/>
-      <c r="M209" s="38"/>
-      <c r="N209" s="38"/>
-      <c r="O209" s="38"/>
-      <c r="P209" s="38"/>
-      <c r="Q209" s="38"/>
-      <c r="R209" s="38"/>
-      <c r="S209" s="38"/>
-      <c r="T209" s="38"/>
-      <c r="U209" s="38"/>
-      <c r="V209" s="38"/>
-      <c r="W209" s="38"/>
-      <c r="X209" s="38"/>
-      <c r="Y209" s="38"/>
-      <c r="Z209" s="39"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="37"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+      <c r="J209" s="2"/>
+      <c r="K209" s="2"/>
+      <c r="L209" s="2"/>
+      <c r="M209" s="2"/>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
+      <c r="U209" s="2"/>
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
+      <c r="Z209" s="43"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A210" s="39"/>
       <c r="B210" s="13"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="38"/>
-      <c r="E210" s="38"/>
-      <c r="F210" s="38"/>
-      <c r="G210" s="38"/>
-      <c r="H210" s="38"/>
-      <c r="I210" s="38"/>
-      <c r="J210" s="38"/>
-      <c r="K210" s="38"/>
-      <c r="L210" s="38"/>
-      <c r="M210" s="38"/>
-      <c r="N210" s="38"/>
-      <c r="O210" s="38"/>
-      <c r="P210" s="38"/>
-      <c r="Q210" s="38"/>
-      <c r="R210" s="38"/>
-      <c r="S210" s="38"/>
-      <c r="T210" s="38"/>
-      <c r="U210" s="38"/>
-      <c r="V210" s="38"/>
-      <c r="W210" s="38"/>
-      <c r="X210" s="38"/>
-      <c r="Y210" s="38"/>
-      <c r="Z210" s="39"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="37"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="2"/>
+      <c r="X210" s="2"/>
+      <c r="Y210" s="2"/>
+      <c r="Z210" s="43"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A211" s="39"/>
       <c r="B211" s="13"/>
-      <c r="C211" s="38"/>
-      <c r="D211" s="38"/>
-      <c r="E211" s="38"/>
-      <c r="F211" s="38"/>
-      <c r="G211" s="38"/>
-      <c r="H211" s="38"/>
-      <c r="I211" s="38"/>
-      <c r="J211" s="38"/>
-      <c r="K211" s="38"/>
-      <c r="L211" s="38"/>
-      <c r="M211" s="38"/>
-      <c r="N211" s="38"/>
-      <c r="O211" s="38"/>
-      <c r="P211" s="38"/>
-      <c r="Q211" s="38"/>
-      <c r="R211" s="38"/>
-      <c r="S211" s="38"/>
-      <c r="T211" s="38"/>
-      <c r="U211" s="38"/>
-      <c r="V211" s="38"/>
-      <c r="W211" s="38"/>
-      <c r="X211" s="38"/>
-      <c r="Y211" s="38"/>
-      <c r="Z211" s="39"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="37"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2"/>
+      <c r="V211" s="2"/>
+      <c r="W211" s="2"/>
+      <c r="X211" s="2"/>
+      <c r="Y211" s="2"/>
+      <c r="Z211" s="43"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1" spans="1:26">
+      <c r="A212" s="39"/>
       <c r="B212" s="13"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="38"/>
-      <c r="E212" s="38"/>
-      <c r="F212" s="38"/>
-      <c r="G212" s="38"/>
-      <c r="H212" s="38"/>
-      <c r="I212" s="38"/>
-      <c r="J212" s="38"/>
-      <c r="K212" s="38"/>
-      <c r="L212" s="38"/>
-      <c r="M212" s="38"/>
-      <c r="N212" s="38"/>
-      <c r="O212" s="38"/>
-      <c r="P212" s="38"/>
-      <c r="Q212" s="38"/>
-      <c r="R212" s="38"/>
-      <c r="S212" s="38"/>
-      <c r="T212" s="38"/>
-      <c r="U212" s="38"/>
-      <c r="V212" s="38"/>
-      <c r="W212" s="38"/>
-      <c r="X212" s="38"/>
-      <c r="Y212" s="38"/>
-      <c r="Z212" s="39"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2"/>
+      <c r="V212" s="2"/>
+      <c r="W212" s="2"/>
+      <c r="X212" s="2"/>
+      <c r="Y212" s="2"/>
+      <c r="Z212" s="43"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1" spans="1:26">
       <c r="A213" s="40"/>
       <c r="B213" s="41"/>
       <c r="C213" s="42"/>
@@ -7986,11 +8568,11 @@
       <c r="W213" s="42"/>
       <c r="X213" s="42"/>
       <c r="Y213" s="42"/>
-      <c r="Z213" s="43"/>
+      <c r="Z213" s="44"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri,Regular"&amp;11&amp;K000000Team name:                 Project: Module/Club: Scrum ID:  Scrum email:</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -7999,90 +8581,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4220183486239" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="44" customWidth="1"/>
-    <col min="6" max="256" width="14.42578125" style="44" customWidth="1"/>
+    <col min="1" max="5" width="8.70642201834862" style="1" customWidth="1"/>
+    <col min="6" max="256" width="14.4220183486239" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8090,90 +8675,93 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.4220183486239" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="8.7109375" style="45" customWidth="1"/>
-    <col min="6" max="256" width="14.42578125" style="45" customWidth="1"/>
+    <col min="1" max="5" width="8.70642201834862" style="1" customWidth="1"/>
+    <col min="6" max="256" width="14.4220183486239" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930599999999998" right="0.69930599999999998" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
